--- a/input/calorimetry/ds.2.dsc/test_2.xlsx
+++ b/input/calorimetry/ds.2.dsc/test_2.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="input_k_constants_log10" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="input_concentrations" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="heats" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="targets" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="input_stoich_coefficients" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="enthalpies" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="setup" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="heats" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="targets" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="input_stoich_coefficients" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="enthalpies" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t xml:space="preserve">lg_k</t>
   </si>
@@ -39,6 +40,18 @@
     <t xml:space="preserve">T3H</t>
   </si>
   <si>
+    <t xml:space="preserve">Calorimeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">component</t>
+  </si>
+  <si>
     <t xml:space="preserve">data</t>
   </si>
   <si>
@@ -58,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">Comp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">component</t>
   </si>
   <si>
     <t xml:space="preserve">MF3H</t>
@@ -212,17 +222,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,7 +254,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>0.0007294</v>
+        <v>0.000866232</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1E-018</v>
@@ -252,164 +263,148 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>0.000728186501468187</v>
+        <v>0.000864792006004402</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>7.28015934379221E-005</v>
+        <v>9.88941101207676E-005</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>0.000726977034010778</v>
+        <v>0.00086335679165531</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.000145361350044392</v>
+        <v>0.00019745996964509</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>0.000725771577575071</v>
+        <v>0.000861926333195157</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0.000217680472844063</v>
+        <v>0.000295699210165539</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>0.000724570112241149</v>
+        <v>0.000860500607023566</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>0.000289760156895489</v>
+        <v>0.000393613452479313</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>0.000723372618220778</v>
+        <v>0.000859079589696054</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>0.000361601589356948</v>
+        <v>0.000491204306677373</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>0.000722179075856328</v>
+        <v>0.000857663257922745</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>0.000433205949551623</v>
+        <v>0.000588473372232698</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>0.000720989465619689</v>
+        <v>0.000856251588567101</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>0.000504574409032131</v>
+        <v>0.000685422238087666</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>0.000719803768111213</v>
+        <v>0.000854844558644657</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0.000575708131644418</v>
+        <v>0.000782052482740581</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>0.000718621964058655</v>
+        <v>0.000853442145321779</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>0.000646608273591027</v>
+        <v>0.000878365674331336</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>0.000717444034316133</v>
+        <v>0.000852044325914424</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>0.000717275983493738</v>
+        <v>0.000974363370726247</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>0.000716269959863088</v>
+        <v>0.00085065107788692</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.000787712402455599</v>
+        <v>0.00107004711960205</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>0.000715099721803267</v>
+        <v>0.000849262378850756</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.000857918664122347</v>
+        <v>0.00116541845852906</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>0.000713933301363703</v>
+        <v>0.000847878206563378</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.000927895894743223</v>
+        <v>0.00126047891505355</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>0.000712770679893717</v>
+        <v>0.000846498538927006</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.000997645213231202</v>
+        <v>0.0013552300067793</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>0.000711611838863919</v>
+        <v>0.000845123353987455</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.00106716773122263</v>
+        <v>0.00144967324144834</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>0.000710456759865225</v>
+        <v>0.000843752629932975</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.00113646455313627</v>
+        <v>0.00154381011702098</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>0.000709305424607887</v>
+        <v>0.000842386345093091</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.0012055367762318</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>0.000708157814920518</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.00127438549066773</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>0.000707013912749146</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0.00134301177955874</v>
+        <v>0.00163764212175492</v>
       </c>
     </row>
   </sheetData>
@@ -428,10 +423,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -443,310 +438,24 @@
       <c r="A1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="n">
+      <c r="B1" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="O1" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="P1" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="R1" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="S1" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="T1" s="0" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>15.024997</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>15.049994</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>15.074991</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>15.099988</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>15.124985</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>15.149982</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>15.174979</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>15.199976</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>15.224973</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>15.24997</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>15.274967</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>15.299964</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>15.324961</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>15.349958</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>15.374955</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>15.399952</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>15.424949</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>15.449946</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>15.474943</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.059071</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.054737</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.054937</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.054388</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.05469</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0.054709</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0.051584</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0.044913</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0.035251</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>0.020345</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0.010824</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>0.006117</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>0.003391</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0.002623</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0.002321</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>0.001985</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>0.001299</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>0.00329</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>0.001588</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>1E-006</v>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -765,10 +474,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -778,18 +487,282 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="K1" s="0" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>15.024977</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>15.049954</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>15.074931</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>15.099908</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>15.124885</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>15.149862</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>15.174839</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>15.199816</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>15.224793</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>15.24977</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>15.274747</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>15.299724</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>15.324701</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>15.349678</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>15.374655</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>15.399632</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>15.424609</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.073663</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.074034</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.074881</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.073269</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.074992</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.074682</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.071711</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.064867</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.041674</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.019753</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.006833</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.001445</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.001989</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.001794</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>-0.00681</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.000303</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>0.00011</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>1E-006</v>
       </c>
     </row>
   </sheetData>
@@ -804,6 +777,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -824,10 +832,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -870,10 +878,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/input/calorimetry/ds.2.dsc/test_2.xlsx
+++ b/input/calorimetry/ds.2.dsc/test_2.xlsx
@@ -5,16 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="input_k_constants_log10" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="input_concentrations" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="setup" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="heats" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="targets" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="input_stoich_coefficients" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="enthalpies" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="input_stoich_coefficients" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="enthalpies" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -52,6 +51,12 @@
     <t xml:space="preserve">component</t>
   </si>
   <si>
+    <t xml:space="preserve">constants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comp</t>
+  </si>
+  <si>
     <t xml:space="preserve">data</t>
   </si>
   <si>
@@ -65,12 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constants </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp</t>
   </si>
   <si>
     <t xml:space="preserve">MF3H</t>
@@ -423,10 +422,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -456,6 +455,14 @@
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -476,7 +483,7 @@
   </sheetPr>
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -487,7 +494,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>1</v>
@@ -543,7 +550,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>15.024977</v>
@@ -599,7 +606,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.073663</v>
@@ -655,7 +662,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -711,7 +718,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-006</v>
@@ -781,10 +788,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -794,10 +801,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -812,55 +833,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
